--- a/EC1-ECG_Analysis/ecg_oversampling/safetyArtist/SMOTE_Augmented Results/SMOTE_Aug_cc13.xlsx
+++ b/EC1-ECG_Analysis/ecg_oversampling/safetyArtist/SMOTE_Augmented Results/SMOTE_Aug_cc13.xlsx
@@ -1,43 +1,198 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="630" yWindow="570" windowWidth="27660" windowHeight="11700"/>
   </bookViews>
   <sheets>
-    <sheet name="SMOTE_Aug_cc13.xlsx" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="SMOTE_Aug_cc13.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SMOTE_Aug_cc13.xlsx!$A$1:$AN$37</definedName>
+  </definedNames>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+  <si>
+    <t>Hearbeat ID</t>
+  </si>
+  <si>
+    <t>Ground Truth</t>
+  </si>
+  <si>
+    <t>Predicted Category Fold 01</t>
+  </si>
+  <si>
+    <t>Comparison Result Fold 01</t>
+  </si>
+  <si>
+    <t>Predicted Category Fold 02</t>
+  </si>
+  <si>
+    <t>Comparison Result Fold 02</t>
+  </si>
+  <si>
+    <t>Predicted Category Fold 03</t>
+  </si>
+  <si>
+    <t>Comparison Result Fold 03</t>
+  </si>
+  <si>
+    <t>Predicted Category Fold 04</t>
+  </si>
+  <si>
+    <t>Comparison Result Fold 04</t>
+  </si>
+  <si>
+    <t>Predicted Category Fold 05</t>
+  </si>
+  <si>
+    <t>Comparison Result Fold 05</t>
+  </si>
+  <si>
+    <t>Predicted Category Fold 06</t>
+  </si>
+  <si>
+    <t>Comparison Result Fold 06</t>
+  </si>
+  <si>
+    <t>Predicted Category Fold 07</t>
+  </si>
+  <si>
+    <t>Comparison Result Fold 07</t>
+  </si>
+  <si>
+    <t>Predicted Category Fold 08</t>
+  </si>
+  <si>
+    <t>Comparison Result Fold 08</t>
+  </si>
+  <si>
+    <t>Predicted Category Fold 09</t>
+  </si>
+  <si>
+    <t>Comparison Result Fold 09</t>
+  </si>
+  <si>
+    <t>Predicted Category Fold 10</t>
+  </si>
+  <si>
+    <t>Comparison Result Fold 10</t>
+  </si>
+  <si>
+    <t>Folds with Predicted '0'</t>
+  </si>
+  <si>
+    <t>Folds with Predicted '1'</t>
+  </si>
+  <si>
+    <t>Folds with Predicted '2'</t>
+  </si>
+  <si>
+    <t>Folds with Predicted '3'</t>
+  </si>
+  <si>
+    <t>Folds with Predicted '4'</t>
+  </si>
+  <si>
+    <t>Is 0 a Most Frequent Result?</t>
+  </si>
+  <si>
+    <t>Is 1 a Most Frequent Result?</t>
+  </si>
+  <si>
+    <t>Is 2 a Most Frequent Result?</t>
+  </si>
+  <si>
+    <t>Is 3 a Most Frequent Result?</t>
+  </si>
+  <si>
+    <t>Is 4 a Most Frequent Result?</t>
+  </si>
+  <si>
+    <t>How Many Most Frequent Categories?</t>
+  </si>
+  <si>
+    <t>Folds' Majority Voting - Predicted Category</t>
+  </si>
+  <si>
+    <t>Folds' Majority Voting - Comparison Result</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Comp. Result</t>
+  </si>
+  <si>
+    <t>Comparison Result Analysis</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t># Hearbeats</t>
+  </si>
+  <si>
+    <t>% Heartbeats</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000%"/>
+  </numFmts>
+  <fonts count="5">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -46,93 +201,75 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,200 +557,786 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:V2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AN37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="25.875" bestFit="1" customWidth="1"/>
+    <col min="24" max="28" width="23.375" bestFit="1" customWidth="1"/>
+    <col min="29" max="33" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="35.125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="38.875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="38.625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="11.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Hearbeat ID</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Ground Truth</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Predicted Category Fold 01</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Comparison Result Fold 01</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Predicted Category Fold 02</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Comparison Result Fold 02</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Predicted Category Fold 03</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Comparison Result Fold 03</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Predicted Category Fold 04</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Comparison Result Fold 04</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Predicted Category Fold 05</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Comparison Result Fold 05</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Predicted Category Fold 06</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Comparison Result Fold 06</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Predicted Category Fold 07</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Comparison Result Fold 07</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Predicted Category Fold 08</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Comparison Result Fold 08</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Predicted Category Fold 09</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Comparison Result Fold 09</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Predicted Category Fold 10</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Comparison Result Fold 10</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:40">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40">
+      <c r="A2">
         <v>73856</v>
       </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
         <v>3</v>
       </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
         <v>3</v>
       </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
         <v>3</v>
       </c>
-      <c r="Q2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1</v>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <f t="shared" ref="X2" si="0">IF(C2=0, 1, 0)+IF(E2=0, 1, 0)+IF(G2=0, 1, 0)+IF(I2=0, 1, 0)+IF(K2=0, 1, 0)+IF(M2=0, 1, 0)+IF(O2=0, 1, 0)+IF(Q2=0, 1, 0)+IF(S2=0, 1, 0)+IF(U2=0, 1, 0)</f>
+        <v>3</v>
+      </c>
+      <c r="Y2">
+        <f t="shared" ref="Y2" si="1">IF(C2=1, 1, 0)+IF(E2=1, 1, 0)+IF(G2=1, 1, 0)+IF(I2=1, 1, 0)+IF(K2=1, 1, 0)+IF(M2=1, 1, 0)+IF(O2=1, 1, 0)+IF(Q2=1, 1, 0)+IF(S2=1, 1, 0)+IF(U2=1, 1, 0)</f>
+        <v>7</v>
+      </c>
+      <c r="Z2">
+        <f t="shared" ref="Z2" si="2">IF(C2=2, 1, 0)+IF(E2=2, 1, 0)+IF(G2=2, 1, 0)+IF(I2=2, 1, 0)+IF(K2=2, 1, 0)+IF(M2=2, 1, 0)+IF(O2=2, 1, 0)+IF(Q2=2, 1, 0)+IF(S2=2, 1, 0)+IF(U2=2, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <f t="shared" ref="AA2" si="3">IF(C2=3, 1, 0)+IF(E2=3, 1, 0)+IF(G2=3, 1, 0)+IF(I2=3, 1, 0)+IF(K2=3, 1, 0)+IF(M2=3, 1, 0)+IF(O2=3, 1, 0)+IF(Q2=3, 1, 0)+IF(S2=3, 1, 0)+IF(U2=3, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <f t="shared" ref="AB2" si="4">IF(C2=4, 1, 0)+IF(E2=4, 1, 0)+IF(G2=4, 1, 0)+IF(I2=4, 1, 0)+IF(K2=4, 1, 0)+IF(M2=4, 1, 0)+IF(O2=4, 1, 0)+IF(Q2=4, 1, 0)+IF(S2=4, 1, 0)+IF(U2=4, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC2" t="b">
+        <f>X2=MAX($X2:$AB2)</f>
+        <v>0</v>
+      </c>
+      <c r="AD2" t="b">
+        <f t="shared" ref="AD2:AG2" si="5">Y2=MAX($X2:$AB2)</f>
+        <v>1</v>
+      </c>
+      <c r="AE2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AF2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AG2" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AH2" s="4">
+        <f>IF(X2=MAX($X2:$AB2), 1, 0) + IF(Y2=MAX($X2:$AB2), 1, 0) + IF(Z2=MAX($X2:$AB2), 1, 0) + IF(AA2=MAX($X2:$AB2), 1, 0) + IF(AB2=MAX($X2:$AB2), 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="AI2" s="4">
+        <f>IF(AH2 = 1, _xlfn.MODE.SNGL(C2,E2,G2,I2,K2,M2,O2,Q2,S2,U2), "Verificar Manualmente")</f>
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="4">
+        <f>IF(AH2 = 1, VLOOKUP(AI2, $AL$2:$AM$6, 2, FALSE), "Verificar Manualmente")</f>
+        <v>1</v>
+      </c>
+      <c r="AL2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40">
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4"/>
+      <c r="AL3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40">
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AL4" s="5">
+        <v>2</v>
+      </c>
+      <c r="AM4" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40">
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="4"/>
+      <c r="AJ5" s="4"/>
+      <c r="AL5" s="5">
+        <v>3</v>
+      </c>
+      <c r="AM5" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40">
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="4"/>
+      <c r="AL6" s="5">
+        <v>4</v>
+      </c>
+      <c r="AM6" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40">
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
+    </row>
+    <row r="8" spans="1:40">
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4"/>
+    </row>
+    <row r="9" spans="1:40">
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="4"/>
+      <c r="AL9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM9" s="6"/>
+      <c r="AN9" s="6"/>
+    </row>
+    <row r="10" spans="1:40">
+      <c r="AH10" s="4"/>
+      <c r="AI10" s="4"/>
+      <c r="AJ10" s="4"/>
+      <c r="AL10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN10" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40">
+      <c r="AH11" s="4"/>
+      <c r="AI11" s="4"/>
+      <c r="AJ11" s="4"/>
+      <c r="AL11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="5">
+        <f>COUNTIFS(AJ:AJ, AL11)</f>
+        <v>0</v>
+      </c>
+      <c r="AN11" s="8">
+        <f>AM11/(SUM(AM$11:AM$37))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40">
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="4"/>
+      <c r="AJ12" s="4"/>
+      <c r="AL12" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM12" s="5">
+        <f t="shared" ref="AM12:AM37" si="6">COUNTIFS(AJ:AJ, AL12)</f>
+        <v>1</v>
+      </c>
+      <c r="AN12" s="8">
+        <f t="shared" ref="AN12:AN37" si="7">AM12/(SUM(AM$11:AM$37))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40">
+      <c r="AH13" s="4"/>
+      <c r="AI13" s="4"/>
+      <c r="AJ13" s="4"/>
+      <c r="AL13" s="5">
+        <v>2</v>
+      </c>
+      <c r="AM13" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN13" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40">
+      <c r="AH14" s="4"/>
+      <c r="AI14" s="4"/>
+      <c r="AJ14" s="4"/>
+      <c r="AL14" s="5">
+        <v>3</v>
+      </c>
+      <c r="AM14" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN14" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40">
+      <c r="AH15" s="4"/>
+      <c r="AI15" s="4"/>
+      <c r="AJ15" s="4"/>
+      <c r="AL15" s="5">
+        <v>4</v>
+      </c>
+      <c r="AM15" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN15" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40">
+      <c r="AH16" s="4"/>
+      <c r="AI16" s="4"/>
+      <c r="AJ16" s="4"/>
+      <c r="AL16" s="5">
+        <v>5</v>
+      </c>
+      <c r="AM16" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN16" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="34:40">
+      <c r="AH17" s="4"/>
+      <c r="AI17" s="4"/>
+      <c r="AJ17" s="4"/>
+      <c r="AL17" s="5">
+        <v>6</v>
+      </c>
+      <c r="AM17" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN17" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="34:40">
+      <c r="AH18" s="4"/>
+      <c r="AI18" s="4"/>
+      <c r="AJ18" s="4"/>
+      <c r="AL18" s="5">
+        <v>7</v>
+      </c>
+      <c r="AM18" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN18" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="34:40">
+      <c r="AH19" s="4"/>
+      <c r="AI19" s="4"/>
+      <c r="AJ19" s="4"/>
+      <c r="AL19" s="5">
+        <v>8</v>
+      </c>
+      <c r="AM19" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN19" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="34:40">
+      <c r="AH20" s="4"/>
+      <c r="AI20" s="4"/>
+      <c r="AJ20" s="4"/>
+      <c r="AL20" s="5">
+        <v>9</v>
+      </c>
+      <c r="AM20" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN20" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="34:40">
+      <c r="AH21" s="4"/>
+      <c r="AI21" s="4"/>
+      <c r="AJ21" s="4"/>
+      <c r="AL21" s="5">
+        <v>10</v>
+      </c>
+      <c r="AM21" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN21" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="34:40">
+      <c r="AH22" s="4"/>
+      <c r="AI22" s="4"/>
+      <c r="AJ22" s="4"/>
+      <c r="AL22" s="5">
+        <v>11</v>
+      </c>
+      <c r="AM22" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN22" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="34:40">
+      <c r="AH23" s="4"/>
+      <c r="AI23" s="4"/>
+      <c r="AJ23" s="4"/>
+      <c r="AL23" s="5">
+        <v>12</v>
+      </c>
+      <c r="AM23" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN23" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="34:40">
+      <c r="AH24" s="4"/>
+      <c r="AI24" s="4"/>
+      <c r="AJ24" s="4"/>
+      <c r="AL24" s="5">
+        <v>13</v>
+      </c>
+      <c r="AM24" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN24" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="34:40">
+      <c r="AH25" s="4"/>
+      <c r="AI25" s="4"/>
+      <c r="AJ25" s="4"/>
+      <c r="AL25" s="5">
+        <v>14</v>
+      </c>
+      <c r="AM25" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN25" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="34:40">
+      <c r="AH26" s="4"/>
+      <c r="AI26" s="4"/>
+      <c r="AJ26" s="4"/>
+      <c r="AL26" s="5">
+        <v>15</v>
+      </c>
+      <c r="AM26" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN26" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="34:40">
+      <c r="AH27" s="4"/>
+      <c r="AI27" s="4"/>
+      <c r="AJ27" s="4"/>
+      <c r="AL27" s="5">
+        <v>16</v>
+      </c>
+      <c r="AM27" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN27" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="34:40">
+      <c r="AH28" s="4"/>
+      <c r="AI28" s="4"/>
+      <c r="AJ28" s="4"/>
+      <c r="AL28" s="5">
+        <v>17</v>
+      </c>
+      <c r="AM28" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN28" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="34:40">
+      <c r="AH29" s="4"/>
+      <c r="AI29" s="4"/>
+      <c r="AJ29" s="4"/>
+      <c r="AL29" s="5">
+        <v>18</v>
+      </c>
+      <c r="AM29" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN29" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="34:40">
+      <c r="AH30" s="4"/>
+      <c r="AI30" s="4"/>
+      <c r="AJ30" s="4"/>
+      <c r="AL30" s="5">
+        <v>19</v>
+      </c>
+      <c r="AM30" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN30" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="34:40">
+      <c r="AH31" s="4"/>
+      <c r="AI31" s="4"/>
+      <c r="AJ31" s="4"/>
+      <c r="AL31" s="5">
+        <v>20</v>
+      </c>
+      <c r="AM31" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN31" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="34:40">
+      <c r="AH32" s="4"/>
+      <c r="AI32" s="4"/>
+      <c r="AJ32" s="4"/>
+      <c r="AL32" s="5">
+        <v>21</v>
+      </c>
+      <c r="AM32" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN32" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="38:40">
+      <c r="AL33" s="9">
+        <v>22</v>
+      </c>
+      <c r="AM33" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN33" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="38:40">
+      <c r="AL34" s="9">
+        <v>23</v>
+      </c>
+      <c r="AM34" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN34" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="38:40">
+      <c r="AL35" s="9">
+        <v>24</v>
+      </c>
+      <c r="AM35" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN35" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="38:40">
+      <c r="AL36" s="9">
+        <v>25</v>
+      </c>
+      <c r="AM36" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN36" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="38:40">
+      <c r="AL37" s="9">
+        <v>26</v>
+      </c>
+      <c r="AM37" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN37" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <autoFilter ref="A1:AN37"/>
+  <mergeCells count="1">
+    <mergeCell ref="AL9:AN9"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/EC1-ECG_Analysis/ecg_oversampling/safetyArtist/SMOTE_Augmented Results/SMOTE_Aug_cc13.xlsx
+++ b/EC1-ECG_Analysis/ecg_oversampling/safetyArtist/SMOTE_Augmented Results/SMOTE_Aug_cc13.xlsx
@@ -247,9 +247,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -257,6 +254,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -558,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN37"/>
+  <dimension ref="A1:AN38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AL9" sqref="AL9:AN38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -895,23 +895,23 @@
       <c r="AH9" s="4"/>
       <c r="AI9" s="4"/>
       <c r="AJ9" s="4"/>
-      <c r="AL9" s="6" t="s">
+      <c r="AL9" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="AM9" s="6"/>
-      <c r="AN9" s="6"/>
+      <c r="AM9" s="9"/>
+      <c r="AN9" s="9"/>
     </row>
     <row r="10" spans="1:40">
       <c r="AH10" s="4"/>
       <c r="AI10" s="4"/>
       <c r="AJ10" s="4"/>
-      <c r="AL10" s="7" t="s">
+      <c r="AL10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AM10" s="7" t="s">
+      <c r="AM10" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AN10" s="7" t="s">
+      <c r="AN10" s="6" t="s">
         <v>40</v>
       </c>
     </row>
@@ -926,8 +926,8 @@
         <f>COUNTIFS(AJ:AJ, AL11)</f>
         <v>0</v>
       </c>
-      <c r="AN11" s="8">
-        <f>AM11/(SUM(AM$11:AM$37))</f>
+      <c r="AN11" s="7">
+        <f>AM11/(SUM(AM$11:AM$38))</f>
         <v>0</v>
       </c>
     </row>
@@ -939,11 +939,11 @@
         <v>1</v>
       </c>
       <c r="AM12" s="5">
-        <f t="shared" ref="AM12:AM37" si="6">COUNTIFS(AJ:AJ, AL12)</f>
-        <v>1</v>
-      </c>
-      <c r="AN12" s="8">
-        <f t="shared" ref="AN12:AN37" si="7">AM12/(SUM(AM$11:AM$37))</f>
+        <f t="shared" ref="AM12:AM38" si="6">COUNTIFS(AJ:AJ, AL12)</f>
+        <v>1</v>
+      </c>
+      <c r="AN12" s="7">
+        <f t="shared" ref="AN12:AN38" si="7">AM12/(SUM(AM$11:AM$38))</f>
         <v>1</v>
       </c>
     </row>
@@ -958,7 +958,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AN13" s="8">
+      <c r="AN13" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -974,7 +974,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AN14" s="8">
+      <c r="AN14" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -990,7 +990,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AN15" s="8">
+      <c r="AN15" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -1006,7 +1006,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AN16" s="8">
+      <c r="AN16" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -1022,7 +1022,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AN17" s="8">
+      <c r="AN17" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -1038,7 +1038,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AN18" s="8">
+      <c r="AN18" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -1054,7 +1054,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AN19" s="8">
+      <c r="AN19" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -1070,7 +1070,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AN20" s="8">
+      <c r="AN20" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -1086,7 +1086,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AN21" s="8">
+      <c r="AN21" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -1102,7 +1102,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AN22" s="8">
+      <c r="AN22" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -1118,7 +1118,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AN23" s="8">
+      <c r="AN23" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -1134,7 +1134,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AN24" s="8">
+      <c r="AN24" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -1150,7 +1150,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AN25" s="8">
+      <c r="AN25" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -1166,7 +1166,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AN26" s="8">
+      <c r="AN26" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -1182,7 +1182,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AN27" s="8">
+      <c r="AN27" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -1198,7 +1198,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AN28" s="8">
+      <c r="AN28" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -1214,7 +1214,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AN29" s="8">
+      <c r="AN29" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -1230,7 +1230,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AN30" s="8">
+      <c r="AN30" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -1246,7 +1246,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AN31" s="8">
+      <c r="AN31" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -1262,72 +1262,85 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AN32" s="8">
+      <c r="AN32" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="38:40">
-      <c r="AL33" s="9">
+      <c r="AL33" s="8">
         <v>22</v>
       </c>
-      <c r="AM33" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AN33" s="8">
+      <c r="AM33" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN33" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="38:40">
-      <c r="AL34" s="9">
+      <c r="AL34" s="8">
         <v>23</v>
       </c>
-      <c r="AM34" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AN34" s="8">
+      <c r="AM34" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN34" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="38:40">
-      <c r="AL35" s="9">
+      <c r="AL35" s="8">
         <v>24</v>
       </c>
-      <c r="AM35" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AN35" s="8">
+      <c r="AM35" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN35" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="38:40">
-      <c r="AL36" s="9">
+      <c r="AL36" s="8">
         <v>25</v>
       </c>
-      <c r="AM36" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AN36" s="8">
+      <c r="AM36" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN36" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="38:40">
-      <c r="AL37" s="9">
+      <c r="AL37" s="8">
         <v>26</v>
       </c>
-      <c r="AM37" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AN37" s="8">
+      <c r="AM37" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN37" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="38:40">
+      <c r="AL38" s="8">
+        <v>27</v>
+      </c>
+      <c r="AM38" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN38" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
